--- a/optimization_transient_HIE_xgb.xlsx
+++ b/optimization_transient_HIE_xgb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46374A43-0FEF-4150-A602-61255BB4EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F37CB3-EE57-4BE6-8FDB-E1D2428A21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +363,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -524,8 +530,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,26 +1038,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.79888888888888898</v>
       </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="B7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>100</v>
       </c>
     </row>
